--- a/nmadb/501414.xlsx
+++ b/nmadb/501414.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7320"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,12 +63,6 @@
     <t>Storr-Paulsen</t>
   </si>
   <si>
-    <t xml:space="preserve">study id </t>
-  </si>
-  <si>
-    <t>tx</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -154,13 +148,19 @@
   </si>
   <si>
     <t>Oshika</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> id </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,21 +511,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="13.140625" style="5" bestFit="1" customWidth="1"/>
@@ -534,7 +534,7 @@
     <col min="9" max="9" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -542,16 +542,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
@@ -560,12 +560,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="5">
         <v>2004</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>172.33873621000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -600,12 +600,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
         <v>2005</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -620,13 +620,13 @@
         <v>228.24308445</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -640,13 +640,13 @@
         <v>252.93516640000001</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -660,13 +660,13 @@
         <v>243.74183063000001</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
@@ -686,13 +686,13 @@
         <v>283.9337951</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -706,13 +706,13 @@
         <v>208.9382684</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -726,18 +726,18 @@
         <v>282.10778082000002</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>1991</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -752,7 +752,7 @@
         <v>205.16550050000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="C11" s="2">
         <v>4</v>
       </c>
@@ -766,12 +766,12 @@
         <v>205.16550050000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>2000</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -786,7 +786,7 @@
         <v>285.04857691000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="C13" s="2">
         <v>5</v>
       </c>
@@ -800,12 +800,12 @@
         <v>344.14754277999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>1999</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -820,7 +820,7 @@
         <v>300.36271405999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="C15" s="2">
         <v>6</v>
       </c>
@@ -834,12 +834,12 @@
         <v>346.91816211000003</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2006</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>7</v>
@@ -854,7 +854,7 @@
         <v>209.9572909</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="C17" s="2">
         <v>7</v>
       </c>
@@ -868,12 +868,12 @@
         <v>172.76416295000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5">
         <v>1997</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
         <v>8</v>
@@ -888,7 +888,7 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="C19" s="2">
         <v>8</v>
       </c>
@@ -902,7 +902,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="C20" s="2">
         <v>8</v>
       </c>
@@ -916,7 +916,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="C21" s="2">
         <v>8</v>
       </c>
@@ -930,12 +930,12 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5">
         <v>1991</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -950,7 +950,7 @@
         <v>238.16162578999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="C23" s="2">
         <v>9</v>
       </c>
@@ -964,7 +964,7 @@
         <v>218.55028973</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="C24" s="2">
         <v>9</v>
       </c>
@@ -978,12 +978,12 @@
         <v>241.04050211000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5">
         <v>1993</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -998,7 +998,7 @@
         <v>244.941789</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="C26" s="2">
         <v>10</v>
       </c>
@@ -1012,12 +1012,12 @@
         <v>289.06525214999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5">
         <v>1996</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
         <v>11</v>
@@ -1032,7 +1032,7 @@
         <v>315.21600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="C28" s="2">
         <v>11</v>
       </c>
@@ -1046,12 +1046,12 @@
         <v>262.39999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="5">
         <v>1993</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -1066,7 +1066,7 @@
         <v>313.10000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="C30" s="2">
         <v>12</v>
       </c>
@@ -1080,12 +1080,12 @@
         <v>180.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="5">
         <v>1999</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <v>13</v>
@@ -1100,7 +1100,7 @@
         <v>49.33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="C32" s="2">
         <v>13</v>
       </c>
@@ -1114,12 +1114,12 @@
         <v>40.159999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <v>14</v>
@@ -1134,7 +1134,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="C34" s="2">
         <v>14</v>
       </c>
@@ -1148,12 +1148,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2">
         <v>15</v>
@@ -1168,7 +1168,7 @@
         <v>348.39173354000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="C36" s="2">
         <v>15</v>
       </c>
@@ -1182,12 +1182,12 @@
         <v>343.37524662999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="5">
         <v>2003</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2">
         <v>16</v>
@@ -1202,7 +1202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="C38" s="2">
         <v>16</v>
       </c>
@@ -1216,12 +1216,12 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="5">
         <v>2001</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="2">
         <v>17</v>
@@ -1236,7 +1236,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="C40" s="2">
         <v>17</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>157.69999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="C41" s="2">
         <v>17</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>176.3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="C42" s="2">
         <v>17</v>
       </c>
@@ -1278,12 +1278,12 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="5">
         <v>1999</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2">
         <v>18</v>
@@ -1298,7 +1298,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="C44" s="2">
         <v>18</v>
       </c>
@@ -1312,12 +1312,12 @@
         <v>314.60000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="5">
         <v>2002</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C45" s="2">
         <v>19</v>
@@ -1332,7 +1332,7 @@
         <v>199.88516702999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="C46" s="2">
         <v>19</v>
       </c>
@@ -1346,12 +1346,12 @@
         <v>206.12733928</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="5">
         <v>2004</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2">
         <v>20</v>
@@ -1366,7 +1366,7 @@
         <v>205.16550050000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="C48" s="2">
         <v>20</v>
       </c>
@@ -1380,12 +1380,12 @@
         <v>205.16550050000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="5">
         <v>2006</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" s="2">
         <v>21</v>
@@ -1400,7 +1400,7 @@
         <v>199.02325081999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="C50" s="2">
         <v>21</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>214.4582494</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="8"/>
     </row>
   </sheetData>
